--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Anxa1-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Anxa1-Egfr.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.49436566666666</v>
+        <v>24.19202866666667</v>
       </c>
       <c r="H2">
-        <v>85.48309699999999</v>
+        <v>72.576086</v>
       </c>
       <c r="I2">
-        <v>0.04826188997421808</v>
+        <v>0.0688374849512199</v>
       </c>
       <c r="J2">
-        <v>0.04826188997421808</v>
+        <v>0.06883748495121988</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N2">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O2">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P2">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q2">
-        <v>44.85383582687</v>
+        <v>41.17313128465045</v>
       </c>
       <c r="R2">
-        <v>403.6845224418299</v>
+        <v>370.558181561854</v>
       </c>
       <c r="S2">
-        <v>0.0009772369931244855</v>
+        <v>0.001449457838060978</v>
       </c>
       <c r="T2">
-        <v>0.0009772369931244855</v>
+        <v>0.001449457838060978</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.49436566666666</v>
+        <v>24.19202866666667</v>
       </c>
       <c r="H3">
-        <v>85.48309699999999</v>
+        <v>72.576086</v>
       </c>
       <c r="I3">
-        <v>0.04826188997421808</v>
+        <v>0.0688374849512199</v>
       </c>
       <c r="J3">
-        <v>0.04826188997421808</v>
+        <v>0.06883748495121988</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>187.511841</v>
       </c>
       <c r="O3">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P3">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q3">
-        <v>1781.010321427953</v>
+        <v>1512.097277603814</v>
       </c>
       <c r="R3">
-        <v>16029.09289285158</v>
+        <v>13608.87549843433</v>
       </c>
       <c r="S3">
-        <v>0.03880312885510866</v>
+        <v>0.05323183305590848</v>
       </c>
       <c r="T3">
-        <v>0.03880312885510867</v>
+        <v>0.05323183305590848</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.49436566666666</v>
+        <v>24.19202866666667</v>
       </c>
       <c r="H4">
-        <v>85.48309699999999</v>
+        <v>72.576086</v>
       </c>
       <c r="I4">
-        <v>0.04826188997421808</v>
+        <v>0.0688374849512199</v>
       </c>
       <c r="J4">
-        <v>0.04826188997421808</v>
+        <v>0.06883748495121988</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N4">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O4">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P4">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q4">
-        <v>5.211704963530333</v>
+        <v>10.496171285578</v>
       </c>
       <c r="R4">
-        <v>46.90534467177299</v>
+        <v>94.46554157020202</v>
       </c>
       <c r="S4">
-        <v>0.0001135481680378671</v>
+        <v>0.0003695069397158864</v>
       </c>
       <c r="T4">
-        <v>0.0001135481680378671</v>
+        <v>0.0003695069397158863</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.49436566666666</v>
+        <v>24.19202866666667</v>
       </c>
       <c r="H5">
-        <v>85.48309699999999</v>
+        <v>72.576086</v>
       </c>
       <c r="I5">
-        <v>0.04826188997421808</v>
+        <v>0.0688374849512199</v>
       </c>
       <c r="J5">
-        <v>0.04826188997421808</v>
+        <v>0.06883748495121988</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N5">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O5">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P5">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q5">
-        <v>381.4056137617895</v>
+        <v>386.404371603008</v>
       </c>
       <c r="R5">
-        <v>3432.650523856105</v>
+        <v>3477.639344427073</v>
       </c>
       <c r="S5">
-        <v>0.008309739140082361</v>
+        <v>0.0136029694027621</v>
       </c>
       <c r="T5">
-        <v>0.008309739140082361</v>
+        <v>0.01360296940276209</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>28.49436566666666</v>
+        <v>24.19202866666667</v>
       </c>
       <c r="H6">
-        <v>85.48309699999999</v>
+        <v>72.576086</v>
       </c>
       <c r="I6">
-        <v>0.04826188997421808</v>
+        <v>0.0688374849512199</v>
       </c>
       <c r="J6">
-        <v>0.04826188997421808</v>
+        <v>0.06883748495121988</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N6">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O6">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P6">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q6">
-        <v>2.672989956336778</v>
+        <v>5.218664103925557</v>
       </c>
       <c r="R6">
-        <v>24.056909607031</v>
+        <v>46.96797693533001</v>
       </c>
       <c r="S6">
-        <v>5.823681786469819E-05</v>
+        <v>0.0001837177147724578</v>
       </c>
       <c r="T6">
-        <v>5.823681786469819E-05</v>
+        <v>0.0001837177147724577</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>426.244309</v>
       </c>
       <c r="I7">
-        <v>0.2406482294750577</v>
+        <v>0.4042872497468467</v>
       </c>
       <c r="J7">
-        <v>0.2406482294750577</v>
+        <v>0.4042872497468467</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N7">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O7">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P7">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q7">
-        <v>223.65465137539</v>
+        <v>241.8126115783112</v>
       </c>
       <c r="R7">
-        <v>2012.89186237851</v>
+        <v>2176.313504204801</v>
       </c>
       <c r="S7">
-        <v>0.004872796160667696</v>
+        <v>0.008512764860438128</v>
       </c>
       <c r="T7">
-        <v>0.004872796160667695</v>
+        <v>0.008512764860438126</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>426.244309</v>
       </c>
       <c r="I8">
-        <v>0.2406482294750577</v>
+        <v>0.4042872497468467</v>
       </c>
       <c r="J8">
-        <v>0.2406482294750577</v>
+        <v>0.4042872497468467</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>187.511841</v>
       </c>
       <c r="O8">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P8">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q8">
         <v>8880.650566262542</v>
@@ -948,10 +948,10 @@
         <v>79925.85509636288</v>
       </c>
       <c r="S8">
-        <v>0.1934840152771227</v>
+        <v>0.3126341905199885</v>
       </c>
       <c r="T8">
-        <v>0.1934840152771227</v>
+        <v>0.3126341905199885</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>426.244309</v>
       </c>
       <c r="I9">
-        <v>0.2406482294750577</v>
+        <v>0.4042872497468467</v>
       </c>
       <c r="J9">
-        <v>0.2406482294750577</v>
+        <v>0.4042872497468467</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N9">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O9">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P9">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q9">
-        <v>25.98712094967567</v>
+        <v>61.64473070050702</v>
       </c>
       <c r="R9">
-        <v>233.884088547081</v>
+        <v>554.8025763045631</v>
       </c>
       <c r="S9">
-        <v>0.0005661851538148714</v>
+        <v>0.002170139489058457</v>
       </c>
       <c r="T9">
-        <v>0.0005661851538148714</v>
+        <v>0.002170139489058457</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>426.244309</v>
       </c>
       <c r="I10">
-        <v>0.2406482294750577</v>
+        <v>0.4042872497468467</v>
       </c>
       <c r="J10">
-        <v>0.2406482294750577</v>
+        <v>0.4042872497468467</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N10">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O10">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P10">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q10">
-        <v>1901.802555031609</v>
+        <v>2269.379260387552</v>
       </c>
       <c r="R10">
-        <v>17116.22299528448</v>
+        <v>20424.41334348797</v>
       </c>
       <c r="S10">
-        <v>0.04143484667775503</v>
+        <v>0.0798911681931769</v>
       </c>
       <c r="T10">
-        <v>0.04143484667775503</v>
+        <v>0.0798911681931769</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>426.244309</v>
       </c>
       <c r="I11">
-        <v>0.2406482294750577</v>
+        <v>0.4042872497468467</v>
       </c>
       <c r="J11">
-        <v>0.2406482294750577</v>
+        <v>0.4042872497468467</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N11">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O11">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P11">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q11">
-        <v>13.32832801907856</v>
+        <v>30.64957064343279</v>
       </c>
       <c r="R11">
-        <v>119.954952171707</v>
+        <v>275.8461357908951</v>
       </c>
       <c r="S11">
-        <v>0.0002903862056974508</v>
+        <v>0.001078986684184724</v>
       </c>
       <c r="T11">
-        <v>0.0002903862056974508</v>
+        <v>0.001078986684184724</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>209.9177196666667</v>
+        <v>65.630404</v>
       </c>
       <c r="H12">
-        <v>629.753159</v>
+        <v>196.891212</v>
       </c>
       <c r="I12">
-        <v>0.3555448824061003</v>
+        <v>0.1867487844836031</v>
       </c>
       <c r="J12">
-        <v>0.3555448824061003</v>
+        <v>0.1867487844836031</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N12">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O12">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P12">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q12">
-        <v>330.43778005889</v>
+        <v>111.6983316029187</v>
       </c>
       <c r="R12">
-        <v>2973.94002053001</v>
+        <v>1005.284984426268</v>
       </c>
       <c r="S12">
-        <v>0.007199295593043454</v>
+        <v>0.00393222514753311</v>
       </c>
       <c r="T12">
-        <v>0.007199295593043453</v>
+        <v>0.00393222514753311</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>209.9177196666667</v>
+        <v>65.630404</v>
       </c>
       <c r="H13">
-        <v>629.753159</v>
+        <v>196.891212</v>
       </c>
       <c r="I13">
-        <v>0.3555448824061003</v>
+        <v>0.1867487844836031</v>
       </c>
       <c r="J13">
-        <v>0.3555448824061003</v>
+        <v>0.1867487844836031</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>187.511841</v>
       </c>
       <c r="O13">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P13">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q13">
-        <v>13120.68602440619</v>
+        <v>4102.159293204588</v>
       </c>
       <c r="R13">
-        <v>118086.1742196557</v>
+        <v>36919.43363884129</v>
       </c>
       <c r="S13">
-        <v>0.2858622795988398</v>
+        <v>0.1444123085854958</v>
       </c>
       <c r="T13">
-        <v>0.2858622795988398</v>
+        <v>0.1444123085854958</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>209.9177196666667</v>
+        <v>65.630404</v>
       </c>
       <c r="H14">
-        <v>629.753159</v>
+        <v>196.891212</v>
       </c>
       <c r="I14">
-        <v>0.3555448824061003</v>
+        <v>0.1867487844836031</v>
       </c>
       <c r="J14">
-        <v>0.3555448824061003</v>
+        <v>0.1867487844836031</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N14">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O14">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P14">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q14">
-        <v>38.39458068019233</v>
+        <v>28.474997753076</v>
       </c>
       <c r="R14">
-        <v>345.551226121731</v>
+        <v>256.2749797776841</v>
       </c>
       <c r="S14">
-        <v>0.0008365082692372466</v>
+        <v>0.001002433076965211</v>
       </c>
       <c r="T14">
-        <v>0.0008365082692372465</v>
+        <v>0.001002433076965211</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>209.9177196666667</v>
+        <v>65.630404</v>
       </c>
       <c r="H15">
-        <v>629.753159</v>
+        <v>196.891212</v>
       </c>
       <c r="I15">
-        <v>0.3555448824061003</v>
+        <v>0.1867487844836031</v>
       </c>
       <c r="J15">
-        <v>0.3555448824061003</v>
+        <v>0.1867487844836031</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N15">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O15">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P15">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q15">
-        <v>2809.811513109087</v>
+        <v>1048.274014763136</v>
       </c>
       <c r="R15">
-        <v>25288.30361798178</v>
+        <v>9434.466132868223</v>
       </c>
       <c r="S15">
-        <v>0.06121776886409264</v>
+        <v>0.03690341102865129</v>
       </c>
       <c r="T15">
-        <v>0.06121776886409263</v>
+        <v>0.03690341102865129</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>209.9177196666667</v>
+        <v>65.630404</v>
       </c>
       <c r="H16">
-        <v>629.753159</v>
+        <v>196.891212</v>
       </c>
       <c r="I16">
-        <v>0.3555448824061003</v>
+        <v>0.1867487844836031</v>
       </c>
       <c r="J16">
-        <v>0.3555448824061003</v>
+        <v>0.1867487844836031</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N16">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O16">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P16">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q16">
-        <v>19.69189147391744</v>
+        <v>14.15768136687333</v>
       </c>
       <c r="R16">
-        <v>177.227023265257</v>
+        <v>127.41913230186</v>
       </c>
       <c r="S16">
-        <v>0.0004290300808872346</v>
+        <v>0.0004984066449576725</v>
       </c>
       <c r="T16">
-        <v>0.0004290300808872346</v>
+        <v>0.0004984066449576725</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>77.646779</v>
+        <v>62.22373433333333</v>
       </c>
       <c r="H17">
-        <v>232.940337</v>
+        <v>186.671203</v>
       </c>
       <c r="I17">
-        <v>0.1315130278311194</v>
+        <v>0.1770552372766232</v>
       </c>
       <c r="J17">
-        <v>0.1315130278311194</v>
+        <v>0.1770552372766232</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N17">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O17">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P17">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q17">
-        <v>122.22612422727</v>
+        <v>105.9004194326852</v>
       </c>
       <c r="R17">
-        <v>1100.03511804543</v>
+        <v>953.1037748941669</v>
       </c>
       <c r="S17">
-        <v>0.002662958204559252</v>
+        <v>0.003728115598967709</v>
       </c>
       <c r="T17">
-        <v>0.002662958204559252</v>
+        <v>0.003728115598967708</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>77.646779</v>
+        <v>62.22373433333333</v>
       </c>
       <c r="H18">
-        <v>232.940337</v>
+        <v>186.671203</v>
       </c>
       <c r="I18">
-        <v>0.1315130278311194</v>
+        <v>0.1770552372766232</v>
       </c>
       <c r="J18">
-        <v>0.1315130278311194</v>
+        <v>0.1770552372766232</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>187.511841</v>
       </c>
       <c r="O18">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P18">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q18">
-        <v>4853.230159336713</v>
+        <v>3889.228992912747</v>
       </c>
       <c r="R18">
-        <v>43679.07143403042</v>
+        <v>35003.06093621472</v>
       </c>
       <c r="S18">
-        <v>0.1057380257545353</v>
+        <v>0.1369163158570111</v>
       </c>
       <c r="T18">
-        <v>0.1057380257545353</v>
+        <v>0.1369163158570111</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>77.646779</v>
+        <v>62.22373433333333</v>
       </c>
       <c r="H19">
-        <v>232.940337</v>
+        <v>186.671203</v>
       </c>
       <c r="I19">
-        <v>0.1315130278311194</v>
+        <v>0.1770552372766232</v>
       </c>
       <c r="J19">
-        <v>0.1315130278311194</v>
+        <v>0.1770552372766232</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N19">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O19">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P19">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q19">
-        <v>14.201828819437</v>
+        <v>26.996949391469</v>
       </c>
       <c r="R19">
-        <v>127.816459374933</v>
+        <v>242.972544523221</v>
       </c>
       <c r="S19">
-        <v>0.0003094172936723783</v>
+        <v>0.0009503999010584971</v>
       </c>
       <c r="T19">
-        <v>0.0003094172936723783</v>
+        <v>0.0009503999010584971</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>77.646779</v>
+        <v>62.22373433333333</v>
       </c>
       <c r="H20">
-        <v>232.940337</v>
+        <v>186.671203</v>
       </c>
       <c r="I20">
-        <v>0.1315130278311194</v>
+        <v>0.1770552372766232</v>
       </c>
       <c r="J20">
-        <v>0.1315130278311194</v>
+        <v>0.1770552372766232</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N20">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O20">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P20">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q20">
-        <v>1039.325379184181</v>
+        <v>993.8613786859839</v>
       </c>
       <c r="R20">
-        <v>9353.928412657626</v>
+        <v>8944.752408173856</v>
       </c>
       <c r="S20">
-        <v>0.02264393200064892</v>
+        <v>0.03498787000976866</v>
       </c>
       <c r="T20">
-        <v>0.02264393200064892</v>
+        <v>0.03498787000976866</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>77.646779</v>
+        <v>62.22373433333333</v>
       </c>
       <c r="H21">
-        <v>232.940337</v>
+        <v>186.671203</v>
       </c>
       <c r="I21">
-        <v>0.1315130278311194</v>
+        <v>0.1770552372766232</v>
       </c>
       <c r="J21">
-        <v>0.1315130278311194</v>
+        <v>0.1770552372766232</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N21">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O21">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P21">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q21">
-        <v>7.283863162172333</v>
+        <v>13.42280026416278</v>
       </c>
       <c r="R21">
-        <v>65.554768459551</v>
+        <v>120.805202377465</v>
       </c>
       <c r="S21">
-        <v>0.0001586945777035946</v>
+        <v>0.000472535909817258</v>
       </c>
       <c r="T21">
-        <v>0.0001586945777035946</v>
+        <v>0.0004725359098172579</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>132.271009</v>
+        <v>57.30924366666667</v>
       </c>
       <c r="H22">
-        <v>396.813027</v>
+        <v>171.927731</v>
       </c>
       <c r="I22">
-        <v>0.2240319703135046</v>
+        <v>0.1630712435417071</v>
       </c>
       <c r="J22">
-        <v>0.2240319703135046</v>
+        <v>0.1630712435417071</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N22">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O22">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P22">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q22">
-        <v>208.21176339717</v>
+        <v>97.53630197052877</v>
       </c>
       <c r="R22">
-        <v>1873.90587057453</v>
+        <v>877.826717734759</v>
       </c>
       <c r="S22">
-        <v>0.004536339732030361</v>
+        <v>0.003433665426349795</v>
       </c>
       <c r="T22">
-        <v>0.004536339732030361</v>
+        <v>0.003433665426349795</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>132.271009</v>
+        <v>57.30924366666667</v>
       </c>
       <c r="H23">
-        <v>396.813027</v>
+        <v>171.927731</v>
       </c>
       <c r="I23">
-        <v>0.2240319703135046</v>
+        <v>0.1630712435417071</v>
       </c>
       <c r="J23">
-        <v>0.2240319703135046</v>
+        <v>0.1630712435417071</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>187.511841</v>
       </c>
       <c r="O23">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P23">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q23">
-        <v>8267.460136172525</v>
+        <v>3582.053928751419</v>
       </c>
       <c r="R23">
-        <v>74407.14122555271</v>
+        <v>32238.48535876277</v>
       </c>
       <c r="S23">
-        <v>0.1801243468994428</v>
+        <v>0.1261025329234914</v>
       </c>
       <c r="T23">
-        <v>0.1801243468994428</v>
+        <v>0.1261025329234914</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>132.271009</v>
+        <v>57.30924366666667</v>
       </c>
       <c r="H24">
-        <v>396.813027</v>
+        <v>171.927731</v>
       </c>
       <c r="I24">
-        <v>0.2240319703135046</v>
+        <v>0.1630712435417071</v>
       </c>
       <c r="J24">
-        <v>0.2240319703135046</v>
+        <v>0.1630712435417071</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N24">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O24">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P24">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q24">
-        <v>24.192764359127</v>
+        <v>24.864704240413</v>
       </c>
       <c r="R24">
-        <v>217.734879232143</v>
+        <v>223.782338163717</v>
       </c>
       <c r="S24">
-        <v>0.0005270912478686952</v>
+        <v>0.0008753363984674804</v>
       </c>
       <c r="T24">
-        <v>0.0005270912478686951</v>
+        <v>0.0008753363984674805</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>132.271009</v>
+        <v>57.30924366666667</v>
       </c>
       <c r="H25">
-        <v>396.813027</v>
+        <v>171.927731</v>
       </c>
       <c r="I25">
-        <v>0.2240319703135046</v>
+        <v>0.1630712435417071</v>
       </c>
       <c r="J25">
-        <v>0.2240319703135046</v>
+        <v>0.1630712435417071</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N25">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O25">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P25">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q25">
-        <v>1770.487048587028</v>
+        <v>915.365246593568</v>
       </c>
       <c r="R25">
-        <v>15934.38343728325</v>
+        <v>8238.287219342112</v>
       </c>
       <c r="S25">
-        <v>0.03857385679131933</v>
+        <v>0.03222449422636696</v>
       </c>
       <c r="T25">
-        <v>0.03857385679131933</v>
+        <v>0.03222449422636696</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>132.271009</v>
+        <v>57.30924366666667</v>
       </c>
       <c r="H26">
-        <v>396.813027</v>
+        <v>171.927731</v>
       </c>
       <c r="I26">
-        <v>0.2240319703135046</v>
+        <v>0.1630712435417071</v>
       </c>
       <c r="J26">
-        <v>0.2240319703135046</v>
+        <v>0.1630712435417071</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N26">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O26">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P26">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q26">
-        <v>12.40803472193567</v>
+        <v>12.36265452836722</v>
       </c>
       <c r="R26">
-        <v>111.672312497421</v>
+        <v>111.263890755305</v>
       </c>
       <c r="S26">
-        <v>0.0002703356428433866</v>
+        <v>0.0004352145670315404</v>
       </c>
       <c r="T26">
-        <v>0.0002703356428433866</v>
+        <v>0.0004352145670315404</v>
       </c>
     </row>
   </sheetData>
